--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/detail.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>vmDetail_operation</t>
   </si>
@@ -65,9 +65,6 @@
     <t>vmDetail_stop</t>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
     <t>vmDetail_restartTip</t>
   </si>
   <si>
@@ -249,43 +246,12 @@
     <t>vmDetail_selectTip</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请选择</t>
-    </r>
-  </si>
-  <si>
-    <t>Please Select</t>
-  </si>
-  <si>
     <t>vmDetail_innerNetwork</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内网</t>
-    </r>
-  </si>
-  <si>
-    <t>Intranet</t>
-  </si>
-  <si>
     <t>vmDetail_bindPipTip</t>
   </si>
   <si>
-    <t xml:space="preserve">EIP that is to be bound </t>
-  </si>
-  <si>
     <t>vmDetail_cancelBtn</t>
   </si>
   <si>
@@ -517,27 +483,15 @@
     <t>vmDetail_operateOk</t>
   </si>
   <si>
-    <t>'Operate successfully'</t>
-  </si>
-  <si>
     <t>vmDetail_descTip</t>
   </si>
   <si>
-    <t xml:space="preserve">'Please input description' </t>
-  </si>
-  <si>
     <t>vmDetail_psdTip2</t>
   </si>
   <si>
-    <t>Passwords input the two times are consistent</t>
-  </si>
-  <si>
     <t>vmDetail_resetOk</t>
   </si>
   <si>
-    <t>'Password reset successfully'</t>
-  </si>
-  <si>
     <t>vmDetail_getDetailInfoTip</t>
   </si>
   <si>
@@ -573,17 +527,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>停止</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>仅运行状态云主机可以重启</t>
     </r>
   </si>
@@ -1254,6 +1197,592 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请选择公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>更换子网后该资源的内网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>将会被重新分配</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>主机删除时，所挂载云硬盘将根据配置的删除属性执行；所绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>将继续保留，如不需保留，请前往对应页面删除，以免产生额外费用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>必须包含大写字母、小写字母、数字及特殊字符中三类，且不能少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>计算中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始获取云主机详情信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>停止提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重启提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>余额不足，是否去充值？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IP </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请输入描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重置密码成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>持续获取主机信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Passwords input are inconsistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation successful'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password resetting successful'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请选择内网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>要绑定的公网</t>
     </r>
     <r>
@@ -1265,567 +1794,30 @@
       </rPr>
       <t>IP</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>消</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请选择公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>确</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>更换子网后该资源的内网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>将会被重新分配</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>主机删除时，所挂载云硬盘将根据配置的删除属性执行；所绑定公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>将继续保留，如不需保留，请前往对应页面删除，以免产生额外费用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>必须包含大写字母、小写字母、数字及特殊字符中三类，且不能少于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>字符不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>字符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>计算中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>...'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始获取云主机详情信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>启动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>停止提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>重启提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>余额不足，是否去充值？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>充值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>解绑公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>确认解绑公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">IP </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>确定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>操作成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请输入描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>重置密码成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>持续获取主机信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select EIP that is to be bound with Intranet xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter description' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1852,6 +1844,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1873,9 +1878,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2217,15 +2230,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2234,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2245,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2256,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2267,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -2288,810 +2300,806 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
+      <c r="B6" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>218</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>219</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>220</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C78 A1:A78" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C5 A1:A78 C78 C36:C73 C7:C32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>